--- a/Results/UNEP-Gap-Report-2023-Chapter-2-Chapter-Data.xlsx
+++ b/Results/UNEP-Gap-Report-2023-Chapter-2-Chapter-Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">gas</t>
   </si>
@@ -34,52 +34,58 @@
     <t xml:space="preserve">GHG</t>
   </si>
   <si>
-    <t xml:space="preserve">54.6±5.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.5±5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8±5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.5±5.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2_Fossil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36±2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38±3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39±3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2_LULUCF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7±3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1±2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9±2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9±2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2_LULUCF_NGHGI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.1±-1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.9±-1.3</t>
+    <t xml:space="preserve">54.6±5.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.5±5.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8±5.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5±5.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fossil_CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1±2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9±2.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1±3.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5±3.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULUCF_CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72±3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06±2.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94±2.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9±2.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULUCF_CO2_NGHGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.64±-1.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.49±-1.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.4±-1.68</t>
   </si>
   <si>
     <t xml:space="preserve">NA±NA</t>
@@ -88,46 +94,112 @@
     <t xml:space="preserve">CH4</t>
   </si>
   <si>
-    <t xml:space="preserve">10±3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10±3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11±3.2</t>
+    <t xml:space="preserve">10.1±3.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4±3.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6±3.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8±3.23</t>
   </si>
   <si>
     <t xml:space="preserve">N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5±1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6±1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6±1.6</t>
+    <t xml:space="preserve">2.47±1.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57±1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63±1.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65±1.59</t>
   </si>
   <si>
     <t xml:space="preserve">Fgas</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2±0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5±0.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5±0.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6±0.49</t>
+    <t xml:space="preserve">1.17±0.351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46±0.439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54±0.461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62±0.486</t>
   </si>
   <si>
     <t xml:space="preserve">abs_change</t>
   </si>
   <si>
     <t xml:space="preserve">rel_change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRSEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intl. transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World</t>
   </si>
 </sst>
 </file>
@@ -501,98 +573,98 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -620,10 +692,10 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -637,7 +709,7 @@
         <v>57.4655882282422</v>
       </c>
       <c r="D2" t="n">
-        <v>0.69</v>
+        <v>0.694</v>
       </c>
       <c r="E2" t="n">
         <v>1.2</v>
@@ -662,7 +734,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>3.94191111111112</v>
@@ -671,7 +743,7 @@
         <v>3.9</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.042</v>
+        <v>-0.0419</v>
       </c>
       <c r="E4" t="n">
         <v>-1.1</v>
@@ -679,7 +751,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="n">
         <v>10.585967911922</v>
@@ -688,7 +760,7 @@
         <v>10.7754005641526</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19</v>
+        <v>0.189</v>
       </c>
       <c r="E5" t="n">
         <v>1.8</v>
@@ -696,7 +768,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" t="n">
         <v>2.62612073272622</v>
@@ -705,7 +777,7 @@
         <v>2.64877209555692</v>
       </c>
       <c r="D6" t="n">
-        <v>0.023</v>
+        <v>0.0227</v>
       </c>
       <c r="E6" t="n">
         <v>0.9</v>
@@ -713,7 +785,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
         <v>1.53543069214334</v>
@@ -744,121 +816,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>56.7716071100189</v>
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
       </c>
       <c r="C2" t="n">
-        <v>57.4655882282422</v>
+        <v>1.05657077350923</v>
       </c>
       <c r="D2" t="n">
-        <v>0.69</v>
+        <v>1.17746730758952</v>
       </c>
       <c r="E2" t="n">
-        <v>1.2</v>
+        <v>0.121</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>38.0821766621162</v>
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>38.5220112116978</v>
+        <v>1.31570607389404</v>
       </c>
       <c r="D3" t="n">
-        <v>0.44</v>
+        <v>1.28323518419312</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2</v>
+        <v>-0.0325</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-2.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.94191111111112</v>
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>3.9</v>
+        <v>15.6040703530838</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.042</v>
+        <v>15.6577626258264</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.1</v>
+        <v>0.0537</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10.585967911922</v>
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>10.7754005641526</v>
+        <v>3.61035034595093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19</v>
+        <v>3.58046954359031</v>
       </c>
       <c r="E5" t="n">
-        <v>1.8</v>
+        <v>-0.0299</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.62612073272622</v>
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>2.64877209555692</v>
+        <v>1.1185690480758</v>
       </c>
       <c r="D6" t="n">
-        <v>0.023</v>
+        <v>1.23036158058709</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>0.112</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.53543069214334</v>
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
       </c>
       <c r="C7" t="n">
-        <v>1.61940435683494</v>
+        <v>3.72491912705107</v>
       </c>
       <c r="D7" t="n">
-        <v>0.084</v>
+        <v>3.91385053075978</v>
       </c>
       <c r="E7" t="n">
-        <v>5.5</v>
+        <v>0.189</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.59816029473687</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.57203324648827</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.0261</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.92548024845344</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.02004859899558</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0946</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>52.8296959989078</v>
+      </c>
+      <c r="D10" t="n">
+        <v>53.5655882282422</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
